--- a/inst/extdata/examples/xlsx/impact-no-deal-brexit-tall.xlsx
+++ b/inst/extdata/examples/xlsx/impact-no-deal-brexit-tall.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">y_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">-5;-4; -3; -2; -1; 0; 1</t>
+    <t xml:space="preserve">-5;;-4;; -3;; -2;; -1;; 0;; 1</t>
   </si>
   <si>
     <t xml:space="preserve">turn</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">y_r_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">-25;-20; -15; -10; -5; 0; 5</t>
+    <t xml:space="preserve">-25;;-20;; -15;; -10;; -5;; 0;; 5</t>
   </si>
   <si>
     <t xml:space="preserve">y_r_lab_col</t>
